--- a/data_year/zb/固定资产投资和房地产/房地产开发企业投资总规模及完成情况.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业投资总规模及完成情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,510 +468,322 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14635.8389</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33065.5137</v>
+      </c>
       <c r="D2" t="n">
-        <v>4984.0529</v>
+        <v>48259.403</v>
       </c>
       <c r="E2" t="n">
-        <v>12816.365</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>133249.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>223823.35</v>
+      </c>
+      <c r="G2" t="n">
+        <v>558.0504</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16575.5159</v>
+      </c>
+      <c r="C3" t="n">
+        <v>44405.3447</v>
+      </c>
       <c r="D3" t="n">
-        <v>6344.1</v>
+        <v>61796.8858</v>
       </c>
       <c r="E3" t="n">
-        <v>15580.2223</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>174932.321</v>
+      </c>
+      <c r="F3" t="n">
+        <v>290001.8157</v>
+      </c>
+      <c r="G3" t="n">
+        <v>816.0252</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2448.46</v>
+        <v>18748.1327</v>
       </c>
       <c r="C4" t="n">
-        <v>5202.72</v>
+        <v>52036.2601</v>
       </c>
       <c r="D4" t="n">
-        <v>7790.9</v>
+        <v>71803.78690000001</v>
       </c>
       <c r="E4" t="n">
-        <v>18998.76</v>
+        <v>223645.5436</v>
       </c>
       <c r="F4" t="n">
-        <v>32189.1</v>
+        <v>358819.7734</v>
       </c>
       <c r="G4" t="n">
-        <v>139.75</v>
+        <v>1019.3941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3270.07</v>
+        <v>20844.1041</v>
       </c>
       <c r="C5" t="n">
-        <v>6742.73</v>
+        <v>63919.2473</v>
       </c>
       <c r="D5" t="n">
-        <v>10153.8</v>
+        <v>86013.3826</v>
       </c>
       <c r="E5" t="n">
-        <v>22691.6028</v>
+        <v>275881.2831</v>
       </c>
       <c r="F5" t="n">
-        <v>38171.68</v>
+        <v>430922.1521</v>
       </c>
       <c r="G5" t="n">
-        <v>141</v>
+        <v>1250.0312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4140.04</v>
+        <v>23167.5922</v>
       </c>
       <c r="C6" t="n">
-        <v>8825.27</v>
+        <v>70561.11410000001</v>
       </c>
       <c r="D6" t="n">
-        <v>13158.3</v>
+        <v>95035.61440000001</v>
       </c>
       <c r="E6" t="n">
-        <v>30321.04</v>
+        <v>330830.0821</v>
       </c>
       <c r="F6" t="n">
-        <v>50570.39</v>
+        <v>493066.495</v>
       </c>
       <c r="G6" t="n">
-        <v>192.93</v>
+        <v>1306.9081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4709.29</v>
+        <v>23571.7536</v>
       </c>
       <c r="C7" t="n">
-        <v>10962.52</v>
+        <v>71195.5721</v>
       </c>
       <c r="D7" t="n">
-        <v>15909.2471</v>
+        <v>95978.8458</v>
       </c>
       <c r="E7" t="n">
-        <v>37243.3726</v>
+        <v>378089.4786</v>
       </c>
       <c r="F7" t="n">
-        <v>65116.7392</v>
+        <v>536853.7518</v>
       </c>
       <c r="G7" t="n">
-        <v>237.44</v>
+        <v>1211.5201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5800.096</v>
+        <v>24816.8696</v>
       </c>
       <c r="C8" t="n">
-        <v>13352.8071</v>
+        <v>76302.1906</v>
       </c>
       <c r="D8" t="n">
-        <v>19422.9174</v>
+        <v>102580.6128</v>
       </c>
       <c r="E8" t="n">
-        <v>48376.3275</v>
+        <v>427854.3842</v>
       </c>
       <c r="F8" t="n">
-        <v>80955.6562</v>
+        <v>587857.2355</v>
       </c>
       <c r="G8" t="n">
-        <v>269.9543</v>
+        <v>1461.5526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7742.807</v>
+        <v>29670.1345</v>
       </c>
       <c r="C9" t="n">
-        <v>17205.54</v>
+        <v>78577.6909</v>
       </c>
       <c r="D9" t="n">
-        <v>25288.8373</v>
+        <v>109798.5288</v>
       </c>
       <c r="E9" t="n">
-        <v>64155.3398</v>
+        <v>479080.01</v>
       </c>
       <c r="F9" t="n">
-        <v>104670.9295</v>
+        <v>656617.3813</v>
       </c>
       <c r="G9" t="n">
-        <v>340.4903</v>
+        <v>1550.7034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9111.4</v>
+        <v>42769.6808</v>
       </c>
       <c r="C10" t="n">
-        <v>21637.7</v>
+        <v>75871.6554</v>
       </c>
       <c r="D10" t="n">
-        <v>31203.1942</v>
+        <v>120164.7499</v>
       </c>
       <c r="E10" t="n">
-        <v>84940</v>
+        <v>519326.3028</v>
       </c>
       <c r="F10" t="n">
-        <v>139989.86</v>
+        <v>740022.3296000001</v>
       </c>
       <c r="G10" t="n">
-        <v>454.1</v>
+        <v>1523.4137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9948.3542</v>
+        <v>48518.2714</v>
       </c>
       <c r="C11" t="n">
-        <v>25839.3304</v>
+        <v>81962.5095</v>
       </c>
       <c r="D11" t="n">
-        <v>36241.808</v>
+        <v>132194.2649</v>
       </c>
       <c r="E11" t="n">
-        <v>99328.48</v>
+        <v>565760.7936</v>
       </c>
       <c r="F11" t="n">
-        <v>167348.18</v>
+        <v>839869.4973</v>
       </c>
       <c r="G11" t="n">
-        <v>454.1234</v>
+        <v>1713.484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14635.8389</v>
+        <v>52245.2674</v>
       </c>
       <c r="C12" t="n">
-        <v>33065.5137</v>
+        <v>87754.7393</v>
       </c>
       <c r="D12" t="n">
-        <v>48259.403</v>
+        <v>141442.9455</v>
       </c>
       <c r="E12" t="n">
-        <v>133249.41</v>
+        <v>613192.246</v>
       </c>
       <c r="F12" t="n">
-        <v>223823.35</v>
+        <v>948886.6319</v>
       </c>
       <c r="G12" t="n">
-        <v>558.0504</v>
+        <v>1442.9388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16575.5159</v>
+        <v>52024.639</v>
       </c>
       <c r="C13" t="n">
-        <v>44405.3447</v>
+        <v>94246.3643</v>
       </c>
       <c r="D13" t="n">
-        <v>61796.8858</v>
+        <v>147602.0767</v>
       </c>
       <c r="E13" t="n">
-        <v>174932.321</v>
+        <v>664724.5539000001</v>
       </c>
       <c r="F13" t="n">
-        <v>290001.8157</v>
+        <v>1033431.0018</v>
       </c>
       <c r="G13" t="n">
-        <v>816.0252</v>
+        <v>1331.0734</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18748.1327</v>
+        <v>47792.2471</v>
       </c>
       <c r="C14" t="n">
-        <v>52036.2601</v>
+        <v>83921.42449999999</v>
       </c>
       <c r="D14" t="n">
-        <v>71803.78690000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>223645.5436</v>
-      </c>
-      <c r="F14" t="n">
-        <v>358819.7734</v>
-      </c>
+        <v>132895.4113</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>1019.3941</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>20844.1041</v>
-      </c>
-      <c r="C15" t="n">
-        <v>63919.2473</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86013.3826</v>
-      </c>
-      <c r="E15" t="n">
-        <v>275881.2831</v>
-      </c>
-      <c r="F15" t="n">
-        <v>430922.1521</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1250.0312</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>23167.5922</v>
-      </c>
-      <c r="C16" t="n">
-        <v>70561.11410000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95035.61440000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>330830.0821</v>
-      </c>
-      <c r="F16" t="n">
-        <v>493066.495</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1306.9081</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>23571.7536</v>
-      </c>
-      <c r="C17" t="n">
-        <v>71195.5721</v>
-      </c>
-      <c r="D17" t="n">
-        <v>95978.8458</v>
-      </c>
-      <c r="E17" t="n">
-        <v>378089.4786</v>
-      </c>
-      <c r="F17" t="n">
-        <v>536853.7518</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1211.5201</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24816.8696</v>
-      </c>
-      <c r="C18" t="n">
-        <v>76302.1906</v>
-      </c>
-      <c r="D18" t="n">
-        <v>102580.6128</v>
-      </c>
-      <c r="E18" t="n">
-        <v>427854.3842</v>
-      </c>
-      <c r="F18" t="n">
-        <v>587857.2355</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1461.5526</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>29670.1345</v>
-      </c>
-      <c r="C19" t="n">
-        <v>78577.6909</v>
-      </c>
-      <c r="D19" t="n">
-        <v>109798.5288</v>
-      </c>
-      <c r="E19" t="n">
-        <v>479080.01</v>
-      </c>
-      <c r="F19" t="n">
-        <v>656617.3813</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1550.7034</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>42769.6808</v>
-      </c>
-      <c r="C20" t="n">
-        <v>75871.6554</v>
-      </c>
-      <c r="D20" t="n">
-        <v>120164.7499</v>
-      </c>
-      <c r="E20" t="n">
-        <v>519326.3028</v>
-      </c>
-      <c r="F20" t="n">
-        <v>740022.3296000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1523.4137</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>48518.2714</v>
-      </c>
-      <c r="C21" t="n">
-        <v>81962.5095</v>
-      </c>
-      <c r="D21" t="n">
-        <v>132194.2649</v>
-      </c>
-      <c r="E21" t="n">
-        <v>565760.7936</v>
-      </c>
-      <c r="F21" t="n">
-        <v>839869.4973</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1713.484</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>52245.2674</v>
-      </c>
-      <c r="C22" t="n">
-        <v>87754.7393</v>
-      </c>
-      <c r="D22" t="n">
-        <v>141442.9455</v>
-      </c>
-      <c r="E22" t="n">
-        <v>613192.246</v>
-      </c>
-      <c r="F22" t="n">
-        <v>948886.6319</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1442.9388</v>
+        <v>1181.7397</v>
       </c>
     </row>
   </sheetData>
